--- a/biology/Botanique/Port_en_drapeau/Port_en_drapeau.xlsx
+++ b/biology/Botanique/Port_en_drapeau/Port_en_drapeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un port en drapeau est la forme que peut prendre un arbre sous l'effet de vents forts soufflant régulièrement d'une même direction et l'obligeant à développer ses branches, ou à les conserver, dans le sens de ces vents dominants ; le houppier présente un étirement maximum dans le sens dominant du vent et le tronc est parfois presque couché. En bordure de mer s'ajoutent les effets des embruns marins (sel et polluants marins)[1]; Tous les arbres ont des réponses biomécaniques et d'aérodynamisme face au stress que constitue un vent unilatéral fort et régulier, mais différemment selon les essences[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un port en drapeau est la forme que peut prendre un arbre sous l'effet de vents forts soufflant régulièrement d'une même direction et l'obligeant à développer ses branches, ou à les conserver, dans le sens de ces vents dominants ; le houppier présente un étirement maximum dans le sens dominant du vent et le tronc est parfois presque couché. En bordure de mer s'ajoutent les effets des embruns marins (sel et polluants marins); Tous les arbres ont des réponses biomécaniques et d'aérodynamisme face au stress que constitue un vent unilatéral fort et régulier, mais différemment selon les essences,. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Enjeux paysagers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces arbres contribuent à la spécificité des nombreux paysages littoraux et de montagne, par exemple sur les falaises, landes et pelouses de front de mer en France [4]. De même pour les paysages insulaires (Bretagne, Corse[5] par exemple) ou pour certains paysages arides [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces arbres contribuent à la spécificité des nombreux paysages littoraux et de montagne, par exemple sur les falaises, landes et pelouses de front de mer en France . De même pour les paysages insulaires (Bretagne, Corse par exemple) ou pour certains paysages arides .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Enjeux sanitaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces arbres sont souvent plus vulnérables au dépérissement[7]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces arbres sont souvent plus vulnérables au dépérissement. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Bois spéciaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois, ces bois avaient une valeur particulière pour les charpentiers, pour les charpentes de marine (bois tors) notamment. Aujourd'hui, ces arbres ont surtout une valeur paysagère, écopaysagère et de protection contre le vent[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois, ces bois avaient une valeur particulière pour les charpentiers, pour les charpentes de marine (bois tors) notamment. Aujourd'hui, ces arbres ont surtout une valeur paysagère, écopaysagère et de protection contre le vent.
 			Sur une colline exposée au vent
 			Effets morphologiques du vent (Darß, péninsule de Fischland-Darß-Zingst)
 			Darß, péninsule de Fischland-Darß-Zingst
